--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/fc1.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/fc1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,504 +468,1260 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quem se reuniu em 1945 em San Francisco e com qual objetivo principal?</t>
+          <t>Por que a população é considerada fundamental para o estudo da economia de um país?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Representantes de cinquenta países se reuniram para criar as Nações Unidas, buscando "preservar as gerações vindouras do flagelo da guerra".</t>
+          <t>Porque ela representa tanto o potencial de consumidores quanto a fonte de trabalhadores (população economicamente ativa) para a produção.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual tratado foi negociado em 1945 para estabelecer a nova organização internacional?</t>
+          <t>O que postula a corrente neomalthusiana sobre a relação entre crescimento populacional e economia?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas.</t>
+          <t>Defende que o crescimento populacional tende a gerar pobreza e fome, pois a população cresceria mais rápido que a capacidade de produção de alimentos e empregos.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 1, 2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qual é a principal obrigação dos membros da ONU, conforme o Artigo 2 (4) da Carta?</t>
+          <t>Qual é a principal crítica dos economistas à teoria neomalthusiana de empobrecimento?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Devem evitar em suas relações internacionais a ameaça ou o uso da força contra a integridade territorial ou a independência política de qualquer Estado.</t>
+          <t>A crítica é que Malthus desconsiderou o progresso tecnológico, que aumenta a produtividade, e os ganhos de escala permitidos por mercados maiores.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qual é o sentido comum do Artigo 2 (4) da Carta da ONU, corroborado pela Convenção de Viena de 1969?</t>
+          <t>Como a composição etária da população influencia os gastos públicos governamentais?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>É categoricamente proibido o emprego da força além-fronteiras.</t>
+          <t>Países jovens gastam mais com educação e saúde infantil, enquanto países com população idosa direcionam recursos para a previdência social e saúde geriátrica.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O que a primeira exceção à proibição do emprego da força, estabelecida na Carta da ONU, confere ao Conselho de Segurança?</t>
+          <t>Segundo a Teoria do Ciclo de Vida, como se comportam a renda e o consumo ao longo da vida?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O poder de autorizar o emprego da força "para manter ou restabelecer a paz e a segurança internacionais".</t>
+          <t>O indivíduo consome durante toda a vida, mas gera renda concentrada na fase adulta, dependendo de transferências na infância e na velhice.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Quem são os cinco membros permanentes do Conselho de Segurança e qual poder eles possuem?</t>
+          <t>O que representam as áreas antes do ponto A e depois do ponto B no gráfico do ciclo de vida?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Grã-Bretanha, China, França, Estados Unidos e Rússia; eles desfrutam do poder de veto sobre qualquer resolução proposta.</t>
+          <t>Representam fases em que o consumo supera a renda (infância e velhice), necessitando de financiamento por poupança ou transferências.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>O que a Assembleia Geral da ONU pode fazer em relação a sanções econômicas ou ações militares?</t>
+          <t>Qual é a principal fonte de dados populacionais no Brasil e qual sua periodicidade padrão?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A Assembleia Geral pode apenas recomendar sanções econômicas ou ações militares, não tendo poderes para autorizá-las.</t>
+          <t>Os Censos Demográficos realizados pelo IBGE, que ocorrem geralmente a cada 10 anos.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Qual foi o evento que levou o Conselho de Segurança a adotar a Resolução 221 e o que ela determinava ao Reino Unido?</t>
+          <t>O que foi a "ameaça de explosão demográfica" no Brasil das décadas de 1960 e 1970?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A chegada de navios-cisterna transportando petróleo destinado à Rodésia do Sul; exortava o Reino Unido "a impedir, se necessário pelo uso da força," a chegada desses navios.</t>
+          <t>Foi o temor de que o rápido crescimento populacional (quase 3% a.a.) levasse à falta de alimentos e empobrecimento, o que não se concretizou.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Por que a Resolução 221, que lidava com a Rodésia do Sul, é considerada um marco?</t>
+          <t>Qual foi a tendência do crescimento populacional brasileiro na primeira década do século XXI?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ela constituiu a primeira ocasião provável em que o Capítulo VII da Carta da ONU veio a ser usado para autorizar o emprego da força.</t>
+          <t>Houve uma forte desaceleração, com o crescimento caindo para 0,83% ao ano, afastando as previsões de explosão demográfica.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qual evento marcou o fim do período de inatividade do Conselho de Segurança durante a Guerra Fria?</t>
+          <t>Quais são os três fatores básicos que compõem a equação do crescimento populacional?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A invasão e ocupação do Kuwait pelo exército do Iraque em 2 de agosto de 1990.</t>
+          <t>Taxa de natalidade, taxa de mortalidade e taxa de migração (saldo migratório).</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág 4, 5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Qual foi a Resolução que estabeleceu o prazo final de 15 de janeiro de 1991 para a retirada do Iraque do Kuwait e o que ela autorizava?</t>
+          <t>Quais fatores socioeconômicos contribuem para a redução da taxa de mortalidade?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A Resolução 678, que autorizava os países cooperantes a “empregar todos os meios necessários” para expulsar as forças iraquianas.</t>
+          <t>Melhorias na nutrição, habitação, saneamento, e avanços na educação, especialmente a educação das mães.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Qual o significado da Operação Tempestade no Deserto para a autoridade do Conselho de Segurança?</t>
+          <t>Qual a diferença conceitual entre taxa de natalidade e taxa de fecundidade?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Foi um estrondoso sucesso, reforçando a autoridade do Conselho de Segurança e refletindo um exercício de multilateralismo global.</t>
+          <t>Natalidade é a relação nascimentos/população total; fecundidade é a relação nascimentos/mulheres em idade fértil (15-44 anos).</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Qual eufemismo foi adotado para se referir aos horrores na Bósnia, permitindo aos governos ocidentais evitar o clamor público do termo "genocídio"?</t>
+          <t>Como fatores econômicos modernos influenciam a redução da fecundidade?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>O eufemismo sérvio "limpeza étnica".</t>
+          <t>Filhos passaram a representar custos elevados (educação, saúde) e custo de oportunidade para a carreira dos pais, desincentivando famílias numerosas.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág 5, 6</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Qual foi a consequência prejudicial do embargo de armas imposto à antiga Iugoslávia pela Resolução 713?</t>
+          <t>O que diferencia migrações internas de migrações externas em termos de impacto populacional nacional?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Contribuiu para manter um desequilíbrio militar entre as forças sérvias, bem armadas, e os muçulmanos não tão bem armados da Bósnia.</t>
+          <t>Migrações externas alteram o total da população do país; migrações internas apenas redistribuem a população entre as regiões.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Qual medida inédita, sob o Capítulo VII, o Conselho de Segurança tomou em 1993, servindo de modelo para tribunais posteriores?</t>
+          <t>O que caracteriza uma população "fechada" demograficamente?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A criação do Tribunal Penal Internacional para a antiga Iugoslávia (ICTY), sediado em Haia, para julgar atrocidades.</t>
+          <t>É aquela cujo crescimento depende exclusivamente do crescimento vegetativo (nascimentos menos óbitos), sem influência significativa de migrações.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Por que a OTAN bombardeou armas e linhas de abastecimento sérvias na Bósnia em 1993?</t>
+          <t>Qual foi o papel da imigração no Brasil no final do século XIX e início do XX?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Constrangida ante os massacres que ocorriam nas “zonas de segurança” da ONU e a incapacidade dos europeus de impedi-los.</t>
+          <t>Foi fundamental para o crescimento populacional, chegando a explicar 30% do aumento populacional na década de 1890 (fase de população aberta).</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Qual trágico evento de 1995 ocorreu na "zona de segurança" de Srebrenica e foi confirmado como genocídio pelo TPII?</t>
+          <t>O que define a Fase A (Regime Demográfico Tradicional) da transição demográfica?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>O massacre de mais de sete mil homens e meninos muçulmanos.</t>
+          <t>Altas taxas de natalidade e de mortalidade, resultando em um crescimento populacional baixo.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>O que a persistência dos foragidos Radovan Karadzic e Ratko Mladic evidencia, conforme a crítica da promotora Carla del Ponte?</t>
+          <t>Por que ocorre um rápido crescimento populacional na Fase B da transição demográfica?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>O caráter transitório e oportunista da maior parte dos esforços internacionais no sentido de impedir ou punir os crimes internacionais.</t>
+          <t>Porque a taxa de mortalidade cai rapidamente devido a melhorias sanitárias, enquanto a taxa de natalidade permanece elevada.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>O que caracteriza a Fase C da transição demográfica?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A queda da taxa de natalidade/fecundidade, que se aproxima da taxa de mortalidade (já baixa), levando à estabilização do crescimento.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Quais foram as principais causas da queda da mortalidade no Brasil a partir de 1940?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Controle de epidemias, expansão do saneamento básico urbano e redução da mortalidade infantil via educação e saúde pública.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Como mudou o perfil das *causas mortis* no Brasil com a transição demográfica?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Houve uma transição de mortes por doenças infecciosas e epidêmicas para doenças crônico-degenerativas e causas externas.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>O que indica o indicador de esperança de vida ao nascer?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Indica a quantidade média de anos que se espera que uma pessoa viva em determinada região, refletindo as condições de saúde e mortalidade.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Para que servem as tábuas de mortalidade utilizadas na economia e atuária?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Servem para estimar quantos anos uma pessoa ainda deve viver dada sua idade atual, sendo essenciais para cálculos de previdência.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Como a expectativa de vida se comporta à medida que a pessoa envelhece?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A expectativa de vida total aumenta, pois o indivíduo sobreviveu aos riscos de morte das idades anteriores (expectativa condicional).</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Qual a diferença entre mortalidade infantil e mortalidade na infância?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mortalidade infantil refere-se a óbitos no primeiro ano de vida; mortalidade na infância abrange óbitos até os cinco anos de idade.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Como se compara a taxa de mortalidade infantil brasileira atual com a de países desenvolvidos?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Apesar da forte queda histórica, a taxa brasileira (aprox. 12 por mil) ainda é quase o dobro da observada em países desenvolvidos (menos de 7 por mil).</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Qual foi o impacto da pandemia de Covid-19 na mortalidade brasileira em comparação global?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>O Brasil foi o segundo país com maior número absoluto de óbitos (quase 700 mil), com uma taxa de mortalidade por milhão muito elevada.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Qual foi o efeito da pandemia de Covid-19 sobre a taxa bruta de mortalidade no Brasil em 2021?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A taxa de mortalidade saltou de cerca de 6 para 8,5 mortes por mil habitantes, um aumento de mais de 40% em relação a 2019.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Como a pandemia alterou temporariamente as principais causas de morte no Brasil em 2021?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>As doenças infecciosas e parasitárias tornaram-se a principal causa de morte (27%), superando as doenças circulatórias e cânceres.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Qual foi o impacto estimado da pandemia na esperança de vida do brasileiro?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Estima-se uma redução de aproximadamente dois anos na expectativa de vida, que caiu para menos de 75 anos no período.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Quais são os dois principais motivos para a rápida queda da fecundidade no Brasil pós-1960?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A entrada maciça da mulher no mercado de trabalho (aumento do custo de oportunidade) e a disseminação de métodos contraceptivos.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pág 13, 14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>O que significa o fato de a taxa de fecundidade brasileira estar abaixo da "taxa de reposição"?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Significa que, a longo prazo, a população tende a parar de crescer e diminuir, pois nascem menos de 2,1 filhos por mulher.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Qual a relação entre nível de escolaridade/renda e a taxa de fecundidade no Brasil?</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Historicamente inversa: quanto maior a renda e a escolaridade, menor o número de filhos, embora a queda seja generalizada em todas as classes.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pág 14, 15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Como mudou a estrutura etária brasileira entre 1960 e 2021?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>O Brasil deixou de ser um país essencialmente jovem; a proporção de crianças caiu drasticamente e a de idosos (acima de 60 anos) aumentou significativamente.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>O que indica o estreitamento da base da pirâmide etária brasileira nas últimas décadas?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Indica a redução da natalidade e fecundidade, com cada nova geração nascendo em menor número que a anterior.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>O que significa a "feminilização do envelhecimento" observada nas projeções demográficas?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Significa que haverá uma proporção maior de mulheres do que homens nas faixas etárias mais avançadas devido à maior longevidade feminina.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Como o envelhecimento populacional afeta a demanda por serviços de educação básica?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Gera um "alívio" na demanda quantitativa por vagas, pois o número absoluto de crianças está diminuindo, permitindo foco na qualidade.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pág 22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Qual é o principal desafio fiscal gerado pela inversão da pirâmide etária no Brasil?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A pressão crescente sobre o sistema previdenciário e de saúde, com menos contribuintes ativos para sustentar um número maior de beneficiários idosos.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Pág 23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>O que é a "razão de dependência" demográfica?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>É a relação entre a população dependente (jovens até 15 anos e idosos acima de 65) e a população em idade ativa (15 a 65 anos).</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Pág 23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>O que é o "bônus demográfico" ou janela de oportunidade demográfica?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>É o período em que a razão de dependência é baixa, com a população ativa em seu auge, favorecendo o crescimento econômico e a poupança.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Pág 23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Qual foi o principal fluxo migratório interno no Brasil entre 1950 e 1990?</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>O êxodo rural, com a transferência de mais de 40 milhões de pessoas do campo para as cidades, impulsionado pela industrialização.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Pág 24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Para qual região brasileira se dirigiu a maior parte da migração interna durante o processo de industrialização?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Para a Região Sudeste (especialmente SP e RJ), concentrando a população nas grandes metrópoles.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pág 24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>O que são as "fronteiras agrícolas" no contexto das migrações brasileiras recentes?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>São áreas de expansão agropecuária (como Centro-Oeste e Norte) que atraem população, deslocando o eixo migratório para o interior.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pág 25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Como mudou o padrão de urbanização brasileiro nas últimas décadas em relação às grandes metrópoles?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Houve uma desaceleração no crescimento das grandes metrópoles tradicionais e um crescimento mais acelerado de cidades médias e novas regiões metropolitanas.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Pág 25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Qual a característica da migração atual para as regiões de fronteira agrícola (ex: Norte)?</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Diferente do passado, é uma migração predominantemente urbana, dirigindo-se para as cidades da região e não apenas para a zona rural.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Pág 25</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
     </row>
